--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.7999877929688</v>
+        <v>282.8999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>1054400</v>
+        <v>1060500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>164</v>
       </c>
       <c r="D4" t="n">
-        <v>581600</v>
+        <v>581700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>363900</v>
+        <v>364100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>482</v>
       </c>
       <c r="D6" t="n">
-        <v>100200</v>
+        <v>101200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>419</v>
       </c>
       <c r="D7" t="n">
-        <v>565900</v>
+        <v>566700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D8" t="n">
-        <v>2181100</v>
+        <v>2194700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D10" t="n">
-        <v>632500</v>
+        <v>634000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D11" t="n">
-        <v>4695200</v>
+        <v>4739300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>814</v>
+        <v>812.5</v>
       </c>
       <c r="D12" t="n">
-        <v>11496300</v>
+        <v>11603300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>238</v>
       </c>
       <c r="D13" t="n">
-        <v>680600</v>
+        <v>684800</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>239</v>
       </c>
       <c r="D15" t="n">
-        <v>662700</v>
+        <v>671900</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.8999938964844</v>
+        <v>283</v>
       </c>
       <c r="D3" t="n">
-        <v>1060500</v>
+        <v>1070000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>364100</v>
+        <v>364200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" t="n">
-        <v>566700</v>
+        <v>577400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D8" t="n">
-        <v>2194700</v>
+        <v>2215700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D10" t="n">
-        <v>634000</v>
+        <v>637300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D11" t="n">
-        <v>4739300</v>
+        <v>4750600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>812.5</v>
+        <v>812.7999877929688</v>
       </c>
       <c r="D12" t="n">
-        <v>11603300</v>
+        <v>11682800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>799</v>
       </c>
       <c r="D14" t="n">
-        <v>129300</v>
+        <v>133700</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>118000</v>
+        <v>118100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>283</v>
+        <v>282.7999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>1070000</v>
+        <v>1073700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" t="n">
-        <v>581700</v>
+        <v>582000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>364200</v>
+        <v>364400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D7" t="n">
-        <v>577400</v>
+        <v>585200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D8" t="n">
-        <v>2215700</v>
+        <v>2229000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>630</v>
       </c>
       <c r="D10" t="n">
-        <v>637300</v>
+        <v>639800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" t="n">
-        <v>4750600</v>
+        <v>4854600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>812.7999877929688</v>
+        <v>814.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>11682800</v>
+        <v>11800600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>799</v>
       </c>
       <c r="D14" t="n">
-        <v>133700</v>
+        <v>134300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>671900</v>
+        <v>689100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D2" t="n">
-        <v>118100</v>
+        <v>118200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.7999877929688</v>
+        <v>282.7000122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>1073700</v>
+        <v>1086400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>364400</v>
+        <v>364500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" t="n">
-        <v>585200</v>
+        <v>585400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D8" t="n">
-        <v>2229000</v>
+        <v>2249300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>132</v>
       </c>
       <c r="D9" t="n">
-        <v>297800</v>
+        <v>297900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>536</v>
       </c>
       <c r="D11" t="n">
-        <v>4854600</v>
+        <v>4866600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>814.4000244140625</v>
+        <v>816.7000122070312</v>
       </c>
       <c r="D12" t="n">
-        <v>11800600</v>
+        <v>12095600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D13" t="n">
-        <v>684800</v>
+        <v>686600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>799</v>
       </c>
       <c r="D14" t="n">
-        <v>134300</v>
+        <v>134600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>689100</v>
+        <v>689500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -485,7 +485,7 @@
         <v>531</v>
       </c>
       <c r="D2" t="n">
-        <v>118200</v>
+        <v>118300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.7000122070312</v>
+        <v>282.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1086400</v>
+        <v>1129800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>165</v>
       </c>
       <c r="D4" t="n">
-        <v>582000</v>
+        <v>584600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>364500</v>
+        <v>370500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D6" t="n">
-        <v>101200</v>
+        <v>101600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D7" t="n">
-        <v>585400</v>
+        <v>595100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D8" t="n">
-        <v>2249300</v>
+        <v>2302000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>297900</v>
+        <v>298700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D10" t="n">
-        <v>639800</v>
+        <v>654600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D11" t="n">
-        <v>4866600</v>
+        <v>4927500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>816.7000122070312</v>
+        <v>816.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>12095600</v>
+        <v>12636600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" t="n">
-        <v>686600</v>
+        <v>693400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" t="n">
-        <v>134600</v>
+        <v>139000</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>689500</v>
+        <v>691300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.5</v>
+        <v>282.6000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>1129800</v>
+        <v>1130800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" t="n">
-        <v>595100</v>
+        <v>604600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D8" t="n">
-        <v>2302000</v>
+        <v>2322300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D10" t="n">
-        <v>654600</v>
+        <v>658000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D11" t="n">
-        <v>4927500</v>
+        <v>5080200</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>816.4000244140625</v>
+        <v>815.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>12636600</v>
+        <v>12730200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>238</v>
       </c>
       <c r="D15" t="n">
-        <v>691300</v>
+        <v>696000</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -508,7 +508,7 @@
         <v>282.6000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>1130800</v>
+        <v>1144000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>165</v>
       </c>
       <c r="D4" t="n">
-        <v>584600</v>
+        <v>587600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>481</v>
       </c>
       <c r="D6" t="n">
-        <v>101600</v>
+        <v>102100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D7" t="n">
-        <v>604600</v>
+        <v>616800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D8" t="n">
-        <v>2322300</v>
+        <v>2333200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D10" t="n">
-        <v>658000</v>
+        <v>668500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D11" t="n">
-        <v>5080200</v>
+        <v>5254300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>815.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>12730200</v>
+        <v>12836300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>798</v>
       </c>
       <c r="D14" t="n">
-        <v>139000</v>
+        <v>139500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -485,7 +485,7 @@
         <v>531</v>
       </c>
       <c r="D2" t="n">
-        <v>118300</v>
+        <v>123800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>282.6000061035156</v>
+        <v>283.1000061035156</v>
       </c>
       <c r="D3" t="n">
-        <v>1144000</v>
+        <v>1503100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
-        <v>587600</v>
+        <v>611400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>370500</v>
+        <v>382200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D6" t="n">
-        <v>102100</v>
+        <v>113100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" t="n">
-        <v>616800</v>
+        <v>659800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D8" t="n">
-        <v>2333200</v>
+        <v>3078000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>298700</v>
+        <v>342300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D10" t="n">
-        <v>668500</v>
+        <v>706800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D11" t="n">
-        <v>5254300</v>
+        <v>7576000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>815.4000244140625</v>
+        <v>813.0999755859375</v>
       </c>
       <c r="D12" t="n">
-        <v>12836300</v>
+        <v>14188400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
-        <v>693400</v>
+        <v>737000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D14" t="n">
-        <v>139500</v>
+        <v>147900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D15" t="n">
-        <v>696000</v>
+        <v>730200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D2" t="n">
-        <v>123800</v>
+        <v>140800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>283.1000061035156</v>
+        <v>283.3999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>1503100</v>
+        <v>2355000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>611400</v>
+        <v>672800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>335A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>147</v>
+        <v>671</v>
       </c>
       <c r="D5" t="n">
-        <v>382200</v>
+        <v>144000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="D6" t="n">
-        <v>113100</v>
+        <v>858100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>419</v>
+        <v>146</v>
       </c>
       <c r="D7" t="n">
-        <v>659800</v>
+        <v>466100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>991</v>
+        <v>478</v>
       </c>
       <c r="D8" t="n">
-        <v>3078000</v>
+        <v>145500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="D9" t="n">
-        <v>342300</v>
+        <v>804900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>632</v>
+        <v>425</v>
       </c>
       <c r="D10" t="n">
-        <v>706800</v>
+        <v>138800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4506</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>555</v>
+        <v>993</v>
       </c>
       <c r="D11" t="n">
-        <v>7576000</v>
+        <v>4960500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>813.0999755859375</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>14188400</v>
+        <v>424000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>630</v>
       </c>
       <c r="D13" t="n">
-        <v>737000</v>
+        <v>820900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>4593</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>797</v>
+        <v>544</v>
       </c>
       <c r="D14" t="n">
-        <v>147900</v>
+        <v>10996600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,16 +781,108 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>240</v>
+        <v>801.5999755859375</v>
       </c>
       <c r="D15" t="n">
-        <v>730200</v>
+        <v>18131600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>238</v>
+      </c>
+      <c r="D16" t="n">
+        <v>806800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>6986</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>609</v>
+      </c>
+      <c r="D17" t="n">
+        <v>104800</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>798</v>
+      </c>
+      <c r="D18" t="n">
+        <v>184100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>241</v>
+      </c>
+      <c r="D19" t="n">
+        <v>775700</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>197A</t>
+          <t>190A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>532</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>140800</v>
+        <v>601800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>197A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>283.3999938964844</v>
+        <v>530</v>
       </c>
       <c r="D3" t="n">
-        <v>2355000</v>
+        <v>197400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="D4" t="n">
-        <v>672800</v>
+        <v>3117500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>335A</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>671</v>
+        <v>164</v>
       </c>
       <c r="D5" t="n">
-        <v>144000</v>
+        <v>729500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>507</v>
+        <v>208</v>
       </c>
       <c r="D6" t="n">
-        <v>858100</v>
+        <v>271500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>146</v>
+        <v>971</v>
       </c>
       <c r="D7" t="n">
-        <v>466100</v>
+        <v>119900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>323A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>478</v>
+        <v>989</v>
       </c>
       <c r="D8" t="n">
-        <v>145500</v>
+        <v>113900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>335A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="D9" t="n">
-        <v>804900</v>
+        <v>227200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>425</v>
+        <v>636</v>
       </c>
       <c r="D10" t="n">
-        <v>138800</v>
+        <v>173500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>993</v>
+        <v>494</v>
       </c>
       <c r="D11" t="n">
-        <v>4960500</v>
+        <v>1301400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D12" t="n">
-        <v>424000</v>
+        <v>882900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>630</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
-        <v>820900</v>
+        <v>607300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="D14" t="n">
-        <v>10996600</v>
+        <v>188100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>801.5999755859375</v>
+        <v>213</v>
       </c>
       <c r="D15" t="n">
-        <v>18131600</v>
+        <v>219300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>419</v>
       </c>
       <c r="D16" t="n">
-        <v>806800</v>
+        <v>921200</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>609</v>
+        <v>425</v>
       </c>
       <c r="D17" t="n">
-        <v>104800</v>
+        <v>159600</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>798</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
-        <v>184100</v>
+        <v>543200</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,16 +873,223 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>241</v>
+        <v>631</v>
       </c>
       <c r="D19" t="n">
-        <v>775700</v>
+        <v>932200</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>4593</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>522</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14724100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>802.7000122070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>21406200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>540</v>
+      </c>
+      <c r="D22" t="n">
+        <v>129500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>241</v>
+      </c>
+      <c r="D23" t="n">
+        <v>967400</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>6986</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>644</v>
+      </c>
+      <c r="D24" t="n">
+        <v>307200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>798</v>
+      </c>
+      <c r="D25" t="n">
+        <v>204800</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>179</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3708700</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>243</v>
+      </c>
+      <c r="D27" t="n">
+        <v>841300</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8698</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>744</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2338900</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/10/parabolic.xlsx
+++ b/parabolic/2025/07/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>601800</v>
+        <v>756900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D3" t="n">
-        <v>197400</v>
+        <v>260500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>285</v>
+        <v>286.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3117500</v>
+        <v>8559500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" t="n">
-        <v>729500</v>
+        <v>872100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>208</v>
+        <v>783</v>
       </c>
       <c r="D6" t="n">
-        <v>271500</v>
+        <v>107100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>2936</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>971</v>
+        <v>487</v>
       </c>
       <c r="D7" t="n">
-        <v>119900</v>
+        <v>157700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>323A</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>989</v>
+        <v>206</v>
       </c>
       <c r="D8" t="n">
-        <v>113900</v>
+        <v>453000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>335A</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>667</v>
+        <v>969</v>
       </c>
       <c r="D9" t="n">
-        <v>227200</v>
+        <v>156800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>323A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>636</v>
+        <v>998</v>
       </c>
       <c r="D10" t="n">
-        <v>173500</v>
+        <v>189000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>332A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>494</v>
+        <v>789</v>
       </c>
       <c r="D11" t="n">
-        <v>1301400</v>
+        <v>113500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>882900</v>
+        <v>125900</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>335A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>668</v>
       </c>
       <c r="D13" t="n">
-        <v>607300</v>
+        <v>280300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>477</v>
+        <v>640</v>
       </c>
       <c r="D14" t="n">
-        <v>188100</v>
+        <v>261900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D15" t="n">
-        <v>219300</v>
+        <v>192600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="D16" t="n">
-        <v>921200</v>
+        <v>1513400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>425</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
-        <v>159600</v>
+        <v>1114000</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D18" t="n">
-        <v>543200</v>
+        <v>719000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>631</v>
+        <v>479</v>
       </c>
       <c r="D19" t="n">
-        <v>932200</v>
+        <v>244300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>522</v>
+        <v>212</v>
       </c>
       <c r="D20" t="n">
-        <v>14724100</v>
+        <v>305100</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>802.7000122070312</v>
+        <v>418</v>
       </c>
       <c r="D21" t="n">
-        <v>21406200</v>
+        <v>1265200</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="D22" t="n">
-        <v>129500</v>
+        <v>212800</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>4506</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>241</v>
+        <v>994</v>
       </c>
       <c r="D23" t="n">
-        <v>967400</v>
+        <v>9846300</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>644</v>
+        <v>133</v>
       </c>
       <c r="D24" t="n">
-        <v>307200</v>
+        <v>1216600</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>798</v>
+        <v>635</v>
       </c>
       <c r="D25" t="n">
-        <v>204800</v>
+        <v>1007200</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>4593</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>179</v>
+        <v>494</v>
       </c>
       <c r="D26" t="n">
-        <v>3708700</v>
+        <v>18595500</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>808.5</v>
       </c>
       <c r="D27" t="n">
-        <v>841300</v>
+        <v>27400400</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,16 +1080,154 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>744</v>
+        <v>540</v>
       </c>
       <c r="D28" t="n">
-        <v>2338900</v>
+        <v>155400</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>245</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1205700</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>6986</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>626</v>
+      </c>
+      <c r="D30" t="n">
+        <v>524500</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>806</v>
+      </c>
+      <c r="D31" t="n">
+        <v>323800</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>180</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4382300</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>8518</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>246</v>
+      </c>
+      <c r="D33" t="n">
+        <v>964200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>8698</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>750</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3355700</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
